--- a/experiment_results/SBFL_ONLY/Summary/BankAccountTP/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/BankAccountTP/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Worst rank</t>
+  </si>
+  <si>
+    <t>Best exam</t>
+  </si>
+  <si>
+    <t>Worst exam</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +520,22 @@
         <v>16.83289817232376</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>6.523762226400829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>21.75520932085312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,7 +543,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +662,22 @@
         <v>14.80939947780679</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.041909397216465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.13158851453251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -647,7 +685,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,6 +804,22 @@
         <v>15.44647519582245</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.186112652487536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.96867188627947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -773,7 +827,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +946,22 @@
         <v>16.10182767624021</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5.743342558398804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>20.83463069876829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -899,7 +969,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1018,6 +1088,22 @@
         <v>16.10182767624021</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5.743342558398804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>20.83463069876829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,6 +1230,22 @@
         <v>15.73629242819843</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.725236265466182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>20.33644237175215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1270,6 +1372,22 @@
         <v>16.42819843342037</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.406070452596446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>21.20927214755002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1277,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,6 +1514,22 @@
         <v>20.92689295039164</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>10.67334570686556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>26.99384048580321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1403,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1522,6 +1656,22 @@
         <v>41.78067885117493</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>20.31487276541489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>54.23551400893749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1529,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,6 +1798,22 @@
         <v>14.80939947780679</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.041909397216465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.13158851453251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1655,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,6 +1940,22 @@
         <v>14.80939947780679</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.041909397216465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.13158851453251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1781,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1900,6 +2082,22 @@
         <v>15.34986945169713</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.685184637569725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.82851293219664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2026,6 +2224,22 @@
         <v>41.78067885117493</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>20.31487276541489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>54.23551400893749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2033,7 +2247,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2152,6 +2366,22 @@
         <v>41.78067885117493</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>20.31487276541489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>54.23551400893749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2159,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2278,6 +2508,22 @@
         <v>41.78067885117493</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>20.31487276541489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>54.23551400893749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2285,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2404,6 +2650,22 @@
         <v>16.21148825065274</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5.266201992405422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>20.93808653239007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2411,7 +2673,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2530,6 +2792,22 @@
         <v>15.73368146214099</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.909404174414617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>20.32374413576328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,7 +2815,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2656,6 +2934,22 @@
         <v>41.78067885117493</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>20.31487276541489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>54.23551400893749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2782,6 +3076,22 @@
         <v>16.75718015665796</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5.52808136612143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>21.68362953853219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2789,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2908,6 +3218,22 @@
         <v>14.80939947780679</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.041909397216465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.13158851453251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2915,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3034,6 +3360,22 @@
         <v>14.80939947780679</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.041909397216465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.13158851453251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3041,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3160,6 +3502,22 @@
         <v>15.93211488250653</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.909404174414617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>20.58092690164781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3167,7 +3525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,6 +3644,22 @@
         <v>16.4934725848564</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5.327431842653215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>21.29711610884301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3293,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3412,6 +3786,22 @@
         <v>16.42819843342037</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.246646708982527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>21.21749121125517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3419,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3538,6 +3928,22 @@
         <v>16.8355091383812</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>6.530633189709885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>21.75864480250765</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3545,7 +3951,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3664,6 +4070,22 @@
         <v>15.66579634464752</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.760243388654732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>20.23220377015845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3671,7 +4093,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,6 +4212,22 @@
         <v>20.92689295039164</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>10.67334570686556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>26.99384048580321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3797,7 +4235,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3916,6 +4354,22 @@
         <v>41.78067885117493</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>20.31487276541489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>54.23551400893749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,7 +4377,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,6 +4496,22 @@
         <v>41.78067885117493</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>20.31487276541489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>54.23551400893749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4049,7 +4519,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4168,6 +4638,22 @@
         <v>22.10443864229765</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.800077581003437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>28.61773613065617</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment_results/SBFL_ONLY/Summary/BankAccountTP/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/BankAccountTP/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="10">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Proportion of cases that found bugs</t>
+  </si>
+  <si>
+    <t>Num of cases that found bugs (Hit@x)</t>
   </si>
   <si>
     <t>Best rank</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1470844212358574</v>
+        <v>0.1481723237597911</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -442,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.267624020887728</v>
+        <v>0.2687119234116623</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3368146214099212</v>
+        <v>0.3379025239338555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3946910356832037</v>
+        <v>0.3957789382071366</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,32 +511,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.039164490861618</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.83289817232376</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>6.523762226400829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>21.75520932085312</v>
+      <c r="C19">
+        <v>6.523762226400844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>21.75520932085309</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +589,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0970409051349</v>
+        <v>0.09704090513489991</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -576,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3093994778067878</v>
+        <v>0.3107049608355091</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -584,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3812010443864241</v>
+        <v>0.3825065274151436</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -592,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4595300261096613</v>
+        <v>0.4606179286335944</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -600,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5474325500435162</v>
+        <v>0.5483028720626631</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -650,32 +696,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.114882506527415</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>14.80939947780679</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.041909397216465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.13158851453251</v>
+      <c r="C19">
+        <v>4.041909397216473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.1315885145325</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +774,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1000870322019148</v>
+        <v>0.09986945169712794</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -718,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3128807658833762</v>
+        <v>0.3139686684073107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -726,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3790252393385561</v>
+        <v>0.3798955613577024</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4604003481288082</v>
+        <v>0.4612706701479547</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -742,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5243690165361187</v>
+        <v>0.5252393385552654</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -792,32 +881,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.227154046997389</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>15.44647519582245</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.186112652487536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.96867188627947</v>
+      <c r="C19">
+        <v>4.186112652487545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.96867188627946</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +959,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09834638816362062</v>
+        <v>0.09834638816362053</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -860,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.306353350739773</v>
+        <v>0.3074412532637076</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -868,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3711923411662322</v>
+        <v>0.3720626631853786</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -876,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4303742384682338</v>
+        <v>0.4312445604873802</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -884,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4825935596170588</v>
+        <v>0.4834638816362054</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -934,32 +1066,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.412532637075718</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.10182767624021</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>5.743342558398804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>20.83463069876829</v>
+      <c r="C19">
+        <v>5.743342558398835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.83463069876827</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09834638816362062</v>
+        <v>0.09834638816362053</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1002,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.306353350739773</v>
+        <v>0.3074412532637076</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1010,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3711923411662322</v>
+        <v>0.3720626631853786</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1018,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4303742384682338</v>
+        <v>0.4312445604873802</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1026,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4825935596170588</v>
+        <v>0.4834638816362054</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,32 +1251,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.412532637075718</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.10182767624021</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>5.743342558398804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>20.83463069876829</v>
+      <c r="C19">
+        <v>5.743342558398835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.83463069876827</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1136,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09965187119234127</v>
+        <v>0.09943429068755438</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1144,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3146214099216704</v>
+        <v>0.3157093124456049</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1152,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4138381201044401</v>
+        <v>0.4149260226283724</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1160,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4895561357702359</v>
+        <v>0.4906440382941688</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1168,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.558311575282855</v>
+        <v>0.5591818973020017</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1218,31 +1436,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.869451697127937</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>15.73629242819843</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.725236265466182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>3.725236265466188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>20.33644237175215</v>
       </c>
     </row>
@@ -1253,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2162750217580503</v>
+        <v>0.2175805047867711</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1294,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3620539599651877</v>
+        <v>0.3633594429939078</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1302,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4586597040905148</v>
+        <v>0.4599651871192342</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1310,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5130548302872074</v>
+        <v>0.5143603133159269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1360,32 +1621,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.399477806788512</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.42819843342037</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.406070452596446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>21.20927214755002</v>
+      <c r="C19">
+        <v>4.406070452596443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>21.20927214755001</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1436,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1079199303742386</v>
+        <v>0.1079199303742385</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1444,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2188859878154911</v>
+        <v>0.2188859878154918</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1452,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2606614447345513</v>
+        <v>0.2606614447345518</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1502,32 +1806,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.281984334203655</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>20.92689295039164</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>10.67334570686556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>26.99384048580321</v>
+      <c r="C19">
+        <v>10.67334570686557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>26.99384048580318</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1562,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1009573542210619</v>
+        <v>0.100739773716275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1570,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1601392515230638</v>
+        <v>0.1599216710182768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1578,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2023498694516967</v>
+        <v>0.2021322889469104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1586,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2297650130548296</v>
+        <v>0.2295474325500435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1594,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2441253263707565</v>
+        <v>0.2439077458659704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1644,32 +1991,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>15.59268929503916</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.78067885117493</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>20.31487276541489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>54.23551400893749</v>
+      <c r="C19">
+        <v>20.31487276541488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>54.23551400893747</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0970409051349</v>
+        <v>0.09704090513489991</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1712,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3093994778067878</v>
+        <v>0.3107049608355091</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1720,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3812010443864241</v>
+        <v>0.3825065274151436</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1728,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4595300261096613</v>
+        <v>0.4606179286335944</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1736,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5474325500435162</v>
+        <v>0.5483028720626631</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1786,32 +2176,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.114882506527415</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>14.80939947780679</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.041909397216465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.13158851453251</v>
+      <c r="C19">
+        <v>4.041909397216473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.1315885145325</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1846,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0970409051349</v>
+        <v>0.09704090513489991</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1854,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3093994778067878</v>
+        <v>0.3107049608355091</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1862,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3812010443864241</v>
+        <v>0.3825065274151436</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1870,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4595300261096613</v>
+        <v>0.4606179286335944</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1878,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5474325500435162</v>
+        <v>0.5483028720626631</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1928,32 +2361,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.114882506527415</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>14.80939947780679</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.041909397216465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.13158851453251</v>
+      <c r="C19">
+        <v>4.041909397216473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.1315885145325</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1022628372497825</v>
+        <v>0.1020452567449956</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1996,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3124456048738026</v>
+        <v>0.3135335073977372</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2004,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4164490861618814</v>
+        <v>0.4175369886858136</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2012,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4930374238468246</v>
+        <v>0.4941253263707571</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2020,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5613577023498698</v>
+        <v>0.5622280243690165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2070,32 +2546,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.838120104438642</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>15.34986945169713</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.685184637569725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.82851293219664</v>
+      <c r="C19">
+        <v>3.68518463756973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.8285129321966</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1009573542210619</v>
+        <v>0.100739773716275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2138,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1601392515230638</v>
+        <v>0.1599216710182768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2146,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2023498694516967</v>
+        <v>0.2021322889469104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2154,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2297650130548296</v>
+        <v>0.2295474325500435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2162,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2441253263707565</v>
+        <v>0.2439077458659704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2212,32 +2731,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>15.59268929503916</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.78067885117493</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>20.31487276541489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>54.23551400893749</v>
+      <c r="C19">
+        <v>20.31487276541488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>54.23551400893747</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2809,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1009573542210619</v>
+        <v>0.100739773716275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2280,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1601392515230638</v>
+        <v>0.1599216710182768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2288,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2023498694516967</v>
+        <v>0.2021322889469104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2296,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2297650130548296</v>
+        <v>0.2295474325500435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2304,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2441253263707565</v>
+        <v>0.2439077458659704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2354,32 +2916,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>15.59268929503916</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.78067885117493</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>20.31487276541489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>54.23551400893749</v>
+      <c r="C19">
+        <v>20.31487276541488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>54.23551400893747</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1009573542210619</v>
+        <v>0.100739773716275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2422,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1601392515230638</v>
+        <v>0.1599216710182768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2430,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2023498694516967</v>
+        <v>0.2021322889469104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2438,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2297650130548296</v>
+        <v>0.2295474325500435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2446,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2441253263707565</v>
+        <v>0.2439077458659704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2496,32 +3101,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>15.59268929503916</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.78067885117493</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>20.31487276541489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>54.23551400893749</v>
+      <c r="C19">
+        <v>20.31487276541488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>54.23551400893747</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1275021758050479</v>
+        <v>0.1288076588337685</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2572,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2893820713664052</v>
+        <v>0.2904699738903394</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2580,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3685813751087911</v>
+        <v>0.3696692776327241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2588,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4860748476936479</v>
+        <v>0.4871627502175804</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2638,32 +3286,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.065274151436031</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.21148825065274</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>5.266201992405422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>20.93808653239007</v>
+      <c r="C19">
+        <v>5.266201992405414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.93808653239004</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2698,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09399477806788517</v>
+        <v>0.09377719756309834</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2706,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2898172323759786</v>
+        <v>0.290905134899913</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2714,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.39295039164491</v>
+        <v>0.3940382941688425</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2722,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4625761531766768</v>
+        <v>0.4636640557006092</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2730,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5348128807658844</v>
+        <v>0.5359007832898173</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2780,32 +3471,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.015665796344647</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>15.73368146214099</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>3.909404174414617</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>20.32374413576328</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.32374413576325</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2840,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1009573542210619</v>
+        <v>0.100739773716275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2848,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1601392515230638</v>
+        <v>0.1599216710182768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2856,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2023498694516967</v>
+        <v>0.2021322889469104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2864,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2297650130548296</v>
+        <v>0.2295474325500435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2872,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2441253263707565</v>
+        <v>0.2439077458659704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2922,32 +3656,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>15.59268929503916</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.78067885117493</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>20.31487276541489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>54.23551400893749</v>
+      <c r="C19">
+        <v>20.31487276541488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>54.23551400893747</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2982,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08006962576153175</v>
+        <v>0.08006962576153176</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2990,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2876414273281108</v>
+        <v>0.2889469103568321</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2998,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3929503916449099</v>
+        <v>0.3942558746736293</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3006,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5000000000000009</v>
+        <v>0.5010879025239339</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3014,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5352480417754574</v>
+        <v>0.5363359442993908</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3064,32 +3841,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.240208877284595</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.75718015665796</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>5.52808136612143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>21.68362953853219</v>
+      <c r="C19">
+        <v>5.528081366121455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>21.68362953853218</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3124,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0970409051349</v>
+        <v>0.09704090513489991</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3132,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3093994778067878</v>
+        <v>0.3107049608355091</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3140,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3812010443864241</v>
+        <v>0.3825065274151436</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3148,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4595300261096613</v>
+        <v>0.4606179286335944</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3156,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5474325500435162</v>
+        <v>0.5483028720626631</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3206,32 +4026,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.114882506527415</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>14.80939947780679</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.041909397216465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.13158851453251</v>
+      <c r="C19">
+        <v>4.041909397216473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.1315885145325</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3266,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0970409051349</v>
+        <v>0.09704090513489991</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3274,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3093994778067878</v>
+        <v>0.3107049608355091</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3282,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3812010443864241</v>
+        <v>0.3825065274151436</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3290,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4595300261096613</v>
+        <v>0.4606179286335944</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3298,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5474325500435162</v>
+        <v>0.5483028720626631</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3348,32 +4211,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.114882506527415</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>14.80939947780679</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.041909397216465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.13158851453251</v>
+      <c r="C19">
+        <v>4.041909397216473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.1315885145325</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3408,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09399477806788517</v>
+        <v>0.09377719756309834</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3416,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2898172323759786</v>
+        <v>0.290905134899913</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3424,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.39295039164491</v>
+        <v>0.3940382941688425</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3432,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4625761531766768</v>
+        <v>0.4636640557006092</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3440,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5335073977371638</v>
+        <v>0.5345953002610966</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3490,32 +4396,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.015665796344647</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>15.93211488250653</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>3.909404174414617</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>20.58092690164781</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.58092690164779</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3558,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1061792863359443</v>
+        <v>0.1074847693646649</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3566,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3028720626631849</v>
+        <v>0.304177545691906</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3574,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3903394255874688</v>
+        <v>0.391644908616188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3582,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4843342036553537</v>
+        <v>0.4856396866840731</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3632,32 +4581,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.114882506527415</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.4934725848564</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>5.327431842653215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>21.29711610884301</v>
+      <c r="C19">
+        <v>5.32743184265321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>21.297116108843</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3692,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0913838120104439</v>
+        <v>0.09116623150565709</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3700,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2454308093994775</v>
+        <v>0.2465187119234116</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3708,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3664055700609233</v>
+        <v>0.3674934725848564</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3716,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4434290687554409</v>
+        <v>0.4445169712793733</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3724,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5073977371627516</v>
+        <v>0.508485639686684</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3774,32 +4766,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.274151436031332</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.42819843342037</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.246646708982527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>21.21749121125517</v>
+      <c r="C19">
+        <v>4.246646708982522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>21.21749121125513</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3842,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1444734551784161</v>
+        <v>0.1455613577023499</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3850,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.267624020887728</v>
+        <v>0.2687119234116623</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3858,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3368146214099212</v>
+        <v>0.3379025239338555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3866,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3946910356832037</v>
+        <v>0.3957789382071366</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3916,32 +4951,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.044386422976501</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.8355091383812</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>6.530633189709885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>21.75864480250765</v>
+      <c r="C19">
+        <v>6.5306331897099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>21.75864480250763</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +5029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3976,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09094865100087036</v>
+        <v>0.09094865100087032</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3984,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2989556135770229</v>
+        <v>0.3002610966057441</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3992,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4029590948651014</v>
+        <v>0.4042645778938206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4000,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4904264577893834</v>
+        <v>0.4915143603133159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4008,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5478677110530904</v>
+        <v>0.5489556135770234</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4058,32 +5136,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.89556135770235</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>15.66579634464752</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.760243388654732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>20.23220377015845</v>
+      <c r="C19">
+        <v>3.760243388654735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.23220377015842</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +5214,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4134,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1079199303742386</v>
+        <v>0.1079199303742385</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4142,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2188859878154911</v>
+        <v>0.2188859878154918</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4150,7 +5271,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2606614447345513</v>
+        <v>0.2606614447345518</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4200,32 +5321,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.281984334203655</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>20.92689295039164</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>10.67334570686556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>26.99384048580321</v>
+      <c r="C19">
+        <v>10.67334570686557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>26.99384048580318</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +5399,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4260,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1009573542210619</v>
+        <v>0.100739773716275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4268,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1601392515230638</v>
+        <v>0.1599216710182768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4276,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2023498694516967</v>
+        <v>0.2021322889469104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4284,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2297650130548296</v>
+        <v>0.2295474325500435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4292,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2441253263707565</v>
+        <v>0.2439077458659704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4342,32 +5506,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>15.59268929503916</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.78067885117493</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>20.31487276541489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>54.23551400893749</v>
+      <c r="C19">
+        <v>20.31487276541488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>54.23551400893747</v>
       </c>
     </row>
   </sheetData>
@@ -4377,7 +5584,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4402,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1009573542210619</v>
+        <v>0.100739773716275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4410,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1601392515230638</v>
+        <v>0.1599216710182768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4418,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2023498694516967</v>
+        <v>0.2021322889469104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4426,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2297650130548296</v>
+        <v>0.2295474325500435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4434,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2441253263707565</v>
+        <v>0.2439077458659704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4484,32 +5691,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>15.59268929503916</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.78067885117493</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>20.31487276541489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>54.23551400893749</v>
+      <c r="C19">
+        <v>20.31487276541488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>54.23551400893747</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +5769,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4544,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06788511749347256</v>
+        <v>0.06788511749347259</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4552,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2737162750217575</v>
+        <v>0.2750217580504787</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4560,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4051348999129691</v>
+        <v>0.4064403829416885</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4568,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.509573542210619</v>
+        <v>0.5106614447345518</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4576,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.555700609225414</v>
+        <v>0.5567885117493473</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4626,32 +5876,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.929503916449086</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>22.10443864229765</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.800077581003437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>28.61773613065617</v>
+      <c r="C19">
+        <v>3.80007758100344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>28.61773613065619</v>
       </c>
     </row>
   </sheetData>
